--- a/horsesense.xlsx
+++ b/horsesense.xlsx
@@ -3422,7 +3422,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2025-10-19 16:33:13</t>
+    <t>2025-10-19 16:36:01</t>
   </si>
   <si>
     <t>KiCost® v1.1.19</t>
@@ -4004,7 +4004,7 @@
         <v>188</v>
       </c>
       <c r="I1" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="I2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>33.2005</v>
+        <v>27.4028</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -4032,11 +4032,11 @@
       </c>
       <c r="I3" s="5">
         <f>SUM(I7:I35)</f>
-        <v>332.0046</v>
+        <v>2740.2811</v>
       </c>
       <c r="N3" s="5">
         <f>SUM(N7:N35)</f>
-        <v>363.2944</v>
+        <v>3041.3864</v>
       </c>
       <c r="O3" s="6" t="str">
         <f>(COUNTA(N7:N35)&amp;" of "&amp;ROWS(N7:N35)&amp;" parts found")</f>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="T3" s="5">
         <f>SUM(T7:T35)</f>
-        <v>325.33</v>
+        <v>2652.0</v>
       </c>
       <c r="U3" s="6" t="str">
         <f>(COUNTA(T7:T35)&amp;" of "&amp;ROWS(T7:T35)&amp;" parts found")</f>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="G7" s="11">
         <f>CEILING(BoardQty*7.0,1)</f>
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="H7" s="12">
         <f>IF(MIN(L7,R7)&lt;&gt;0,MIN(L7,R7),"")</f>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I7" s="13">
         <f>IF(AND(ISNUMBER(G7),ISNUMBER(H7)),G7*H7,"")</f>
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="J7" s="11">
         <v>1496000</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="N7" s="13">
         <f>IFERROR(IF(K7="",G7,K7)*L7,"")</f>
-        <v>0.3898</v>
+        <v>3.8976</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>120</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="T7" s="13">
         <f>IFERROR(IF(Q7="",G7,Q7)*R7,"")</f>
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>151</v>
@@ -4236,15 +4236,15 @@
       </c>
       <c r="G8" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H8" s="12">
         <f>IF(MIN(L8,R8)&lt;&gt;0,MIN(L8,R8),"")</f>
-        <v>0.042</v>
+        <v>0.035</v>
       </c>
       <c r="I8" s="13">
         <f>IF(AND(ISNUMBER(G8),ISNUMBER(H8)),G8*H8,"")</f>
-        <v>0.42</v>
+        <v>3.5</v>
       </c>
       <c r="J8" s="11">
         <v>423908</v>
@@ -4252,14 +4252,14 @@
       <c r="K8" s="11"/>
       <c r="L8" s="12">
         <f>IFERROR(IF(OR(K8&gt;=M8,G8&gt;=M8),EUR_USD*LOOKUP(IF(K8="",G8,K8),{0,1,10,50,100,500,1000},{0.0,0.11,0.064,0.0442,0.0382,0.02824,0.02721}),"MOQ="&amp;M8),"")</f>
-        <v>0.05939123979213067</v>
+        <v>0.035449146250927994</v>
       </c>
       <c r="M8" s="11">
         <v>1</v>
       </c>
       <c r="N8" s="13">
         <f>IFERROR(IF(K8="",G8,K8)*L8,"")</f>
-        <v>0.5939</v>
+        <v>3.5449</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>121</v>
@@ -4270,14 +4270,14 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="12">
         <f>IFERROR(IF(OR(Q8&gt;=S8,G8&gt;=S8),LOOKUP(IF(Q8="",G8,Q8),{0,1,10,100,500,1000,2000,4000,10000,24000},{0.0,0.112,0.042,0.035,0.028,0.026,0.022,0.02,0.017,0.016}),"MOQ="&amp;S8),"")</f>
-        <v>0.042</v>
+        <v>0.035</v>
       </c>
       <c r="S8" s="11">
         <v>1</v>
       </c>
       <c r="T8" s="13">
         <f>IFERROR(IF(Q8="",G8,Q8)*R8,"")</f>
-        <v>0.42</v>
+        <v>3.5</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>152</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="G9" s="11">
         <f>CEILING(BoardQty*7.0,1)</f>
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="H9" s="12">
         <f>IF(MIN(L9,R9)&lt;&gt;0,MIN(L9,R9),"")</f>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="I9" s="13">
         <f>IF(AND(ISNUMBER(G9),ISNUMBER(H9)),G9*H9,"")</f>
-        <v>1.4941</v>
+        <v>14.9406</v>
       </c>
       <c r="J9" s="11">
         <v>26373</v>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="N9" s="13">
         <f>IFERROR(IF(K9="",G9,K9)*L9,"")</f>
-        <v>1.4941</v>
+        <v>14.9406</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>122</v>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="T9" s="13">
         <f>IFERROR(IF(Q9="",G9,Q9)*R9,"")</f>
-        <v>2.87</v>
+        <v>28.7</v>
       </c>
       <c r="U9" s="11" t="s">
         <v>153</v>
@@ -4366,15 +4366,15 @@
       </c>
       <c r="G10" s="11">
         <f>CEILING(BoardQty*7.0,1)</f>
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="H10" s="12">
         <f>IF(MIN(L10,R10)&lt;&gt;0,MIN(L10,R10),"")</f>
-        <v>0.028</v>
+        <v>0.017</v>
       </c>
       <c r="I10" s="13">
         <f>IF(AND(ISNUMBER(G10),ISNUMBER(H10)),G10*H10,"")</f>
-        <v>1.96</v>
+        <v>11.9</v>
       </c>
       <c r="J10" s="11">
         <v>94499</v>
@@ -4382,14 +4382,14 @@
       <c r="K10" s="11"/>
       <c r="L10" s="12">
         <f>IFERROR(IF(OR(K10&gt;=M10,G10&gt;=M10),EUR_USD*LOOKUP(IF(K10="",G10,K10),{0,1,10,50,100,500,1000},{0.0,0.1,0.046,0.0318,0.0273,0.01984,0.01756}),"MOQ="&amp;M10),"")</f>
-        <v>0.02951002227171493</v>
+        <v>0.018411284335560506</v>
       </c>
       <c r="M10" s="11">
         <v>1</v>
       </c>
       <c r="N10" s="13">
         <f>IFERROR(IF(K10="",G10,K10)*L10,"")</f>
-        <v>2.0657</v>
+        <v>12.8879</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>123</v>
@@ -4400,14 +4400,14 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="12">
         <f>IFERROR(IF(OR(Q10&gt;=S10,G10&gt;=S10),LOOKUP(IF(Q10="",G10,Q10),{0,1,10,100,500,1000,2000,4000,10000,24000},{0.0,0.086,0.028,0.024,0.017,0.015,0.011,0.009,0.008,0.007}),"MOQ="&amp;S10),"")</f>
-        <v>0.028</v>
+        <v>0.017</v>
       </c>
       <c r="S10" s="11">
         <v>1</v>
       </c>
       <c r="T10" s="13">
         <f>IFERROR(IF(Q10="",G10,Q10)*R10,"")</f>
-        <v>1.96</v>
+        <v>11.9</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>154</v>
@@ -4431,15 +4431,15 @@
       </c>
       <c r="G11" s="11">
         <f>CEILING(BoardQty*3.0,1)</f>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H11" s="12">
         <f>IF(MIN(L11,R11)&lt;&gt;0,MIN(L11,R11),"")</f>
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="13">
         <f>IF(AND(ISNUMBER(G11),ISNUMBER(H11)),G11*H11,"")</f>
-        <v>3.42</v>
+        <v>30.0</v>
       </c>
       <c r="J11" s="11">
         <v>790570</v>
@@ -4447,14 +4447,14 @@
       <c r="K11" s="11"/>
       <c r="L11" s="12">
         <f>IFERROR(IF(OR(K11&gt;=M11,G11&gt;=M11),EUR_USD*LOOKUP(IF(K11="",G11,K11),{0,1,10,50,100,500,1000},{0.0,0.31,0.182,0.133,0.1179,0.09246,0.0846}),"MOQ="&amp;M11),"")</f>
-        <v>0.16889383815887157</v>
+        <v>0.10940979955456571</v>
       </c>
       <c r="M11" s="11">
         <v>1</v>
       </c>
       <c r="N11" s="13">
         <f>IFERROR(IF(K11="",G11,K11)*L11,"")</f>
-        <v>5.0668</v>
+        <v>32.8229</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>124</v>
@@ -4465,14 +4465,14 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="12">
         <f>IFERROR(IF(OR(Q11&gt;=S11,G11&gt;=S11),LOOKUP(IF(Q11="",G11,Q11),{0,1,10,100,500,1000,3000,9000,24000,45000},{0.0,0.267,0.114,0.1,0.08,0.073,0.07,0.058,0.052,0.05}),"MOQ="&amp;S11),"")</f>
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
       <c r="T11" s="13">
         <f>IFERROR(IF(Q11="",G11,Q11)*R11,"")</f>
-        <v>3.42</v>
+        <v>30.0</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>155</v>
@@ -4496,15 +4496,15 @@
       </c>
       <c r="G12" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H12" s="12">
         <f>IF(MIN(L12,R12)&lt;&gt;0,MIN(L12,R12),"")</f>
-        <v>0.10857461024498889</v>
+        <v>0.06811432813659987</v>
       </c>
       <c r="I12" s="13">
         <f>IF(AND(ISNUMBER(G12),ISNUMBER(H12)),G12*H12,"")</f>
-        <v>1.0857</v>
+        <v>6.8114</v>
       </c>
       <c r="J12" s="11">
         <v>171009</v>
@@ -4512,14 +4512,14 @@
       <c r="K12" s="11"/>
       <c r="L12" s="12">
         <f>IFERROR(IF(OR(K12&gt;=M12,G12&gt;=M12),EUR_USD*LOOKUP(IF(K12="",G12,K12),{0,1,10,50,100,500,1000},{0.0,0.2,0.117,0.0838,0.0734,0.05618,0.05087}),"MOQ="&amp;M12),"")</f>
-        <v>0.10857461024498889</v>
+        <v>0.06811432813659987</v>
       </c>
       <c r="M12" s="11">
         <v>1</v>
       </c>
       <c r="N12" s="13">
         <f>IFERROR(IF(K12="",G12,K12)*L12,"")</f>
-        <v>1.0857</v>
+        <v>6.8114</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>125</v>
@@ -4550,15 +4550,15 @@
       </c>
       <c r="G13" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H13" s="12">
         <f>IF(MIN(L13,R13)&lt;&gt;0,MIN(L13,R13),"")</f>
-        <v>0.244</v>
+        <v>0.151</v>
       </c>
       <c r="I13" s="13">
         <f>IF(AND(ISNUMBER(G13),ISNUMBER(H13)),G13*H13,"")</f>
-        <v>2.44</v>
+        <v>15.1</v>
       </c>
       <c r="J13" s="11">
         <v>2999</v>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="N13" s="13">
         <f>IFERROR(IF(K13="",G13,K13)*L13,"")</f>
-        <v>8.389</v>
+        <v>83.8901</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>126</v>
@@ -4584,14 +4584,14 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="12">
         <f>IFERROR(IF(OR(Q13&gt;=S13,G13&gt;=S13),LOOKUP(IF(Q13="",G13,Q13),{0,1,10,100,500,1000},{0.0,0.37,0.244,0.151,0.121,0.115}),"MOQ="&amp;S13),"")</f>
-        <v>0.244</v>
+        <v>0.151</v>
       </c>
       <c r="S13" s="11">
         <v>1</v>
       </c>
       <c r="T13" s="13">
         <f>IFERROR(IF(Q13="",G13,Q13)*R13,"")</f>
-        <v>2.44</v>
+        <v>15.1</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>158</v>
@@ -4615,15 +4615,15 @@
       </c>
       <c r="G14" s="11">
         <f>CEILING(BoardQty*2.0,1)</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H14" s="12">
         <f>IF(MIN(L14,R14)&lt;&gt;0,MIN(L14,R14),"")</f>
-        <v>0.028</v>
+        <v>0.023</v>
       </c>
       <c r="I14" s="13">
         <f>IF(AND(ISNUMBER(G14),ISNUMBER(H14)),G14*H14,"")</f>
-        <v>0.56</v>
+        <v>4.6</v>
       </c>
       <c r="J14" s="11">
         <v>36849</v>
@@ -4631,14 +4631,14 @@
       <c r="K14" s="11"/>
       <c r="L14" s="12">
         <f>IFERROR(IF(OR(K14&gt;=M14,G14&gt;=M14),EUR_USD*LOOKUP(IF(K14="",G14,K14),{0,1,10,50,100,500,1000},{0.0,0.1,0.048,0.033,0.0284,0.02064,0.01828}),"MOQ="&amp;M14),"")</f>
-        <v>0.044543429844098</v>
+        <v>0.026354862657757987</v>
       </c>
       <c r="M14" s="11">
         <v>1</v>
       </c>
       <c r="N14" s="13">
         <f>IFERROR(IF(K14="",G14,K14)*L14,"")</f>
-        <v>0.8909</v>
+        <v>5.271</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>127</v>
@@ -4649,14 +4649,14 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="12">
         <f>IFERROR(IF(OR(Q14&gt;=S14,G14&gt;=S14),LOOKUP(IF(Q14="",G14,Q14),{0,1,10,100,500,1000,4000},{0.0,0.086,0.028,0.023,0.018,0.015,0.011}),"MOQ="&amp;S14),"")</f>
-        <v>0.028</v>
+        <v>0.023</v>
       </c>
       <c r="S14" s="11">
         <v>1</v>
       </c>
       <c r="T14" s="13">
         <f>IFERROR(IF(Q14="",G14,Q14)*R14,"")</f>
-        <v>0.56</v>
+        <v>4.6</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>159</v>
@@ -4680,15 +4680,15 @@
       </c>
       <c r="G15" s="11">
         <f>CEILING(BoardQty*2.0,1)</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H15" s="12">
         <f>IF(MIN(L15,R15)&lt;&gt;0,MIN(L15,R15),"")</f>
-        <v>0.04</v>
+        <v>0.033</v>
       </c>
       <c r="I15" s="13">
         <f>IF(AND(ISNUMBER(G15),ISNUMBER(H15)),G15*H15,"")</f>
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="J15" s="11">
         <v>498356</v>
@@ -4696,14 +4696,14 @@
       <c r="K15" s="11"/>
       <c r="L15" s="12">
         <f>IFERROR(IF(OR(K15&gt;=M15,G15&gt;=M15),EUR_USD*LOOKUP(IF(K15="",G15,K15),{0,1,10,50,100,500,1000},{0.0,0.12,0.067,0.0464,0.0401,0.02974,0.02654}),"MOQ="&amp;M15),"")</f>
-        <v>0.062175204157386796</v>
+        <v>0.03721232368225687</v>
       </c>
       <c r="M15" s="11">
         <v>1</v>
       </c>
       <c r="N15" s="13">
         <f>IFERROR(IF(K15="",G15,K15)*L15,"")</f>
-        <v>1.2435</v>
+        <v>7.4425</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>128</v>
@@ -4714,14 +4714,14 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="12">
         <f>IFERROR(IF(OR(Q15&gt;=S15,G15&gt;=S15),LOOKUP(IF(Q15="",G15,Q15),{0,1,10,100,500,1000,4000,8000},{0.0,0.103,0.04,0.033,0.026,0.022,0.015,0.012}),"MOQ="&amp;S15),"")</f>
-        <v>0.04</v>
+        <v>0.033</v>
       </c>
       <c r="S15" s="11">
         <v>1</v>
       </c>
       <c r="T15" s="13">
         <f>IFERROR(IF(Q15="",G15,Q15)*R15,"")</f>
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="U15" s="11" t="s">
         <v>160</v>
@@ -4745,15 +4745,15 @@
       </c>
       <c r="G16" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H16" s="12">
         <f>IF(MIN(L16,R16)&lt;&gt;0,MIN(L16,R16),"")</f>
-        <v>0.006495916852264292</v>
+        <v>0.0059391239792130675</v>
       </c>
       <c r="I16" s="13">
         <f>IF(AND(ISNUMBER(G16),ISNUMBER(H16)),G16*H16,"")</f>
-        <v>0.065</v>
+        <v>0.5939</v>
       </c>
       <c r="J16" s="11">
         <v>668421</v>
@@ -4761,14 +4761,14 @@
       <c r="K16" s="11"/>
       <c r="L16" s="12">
         <f>IFERROR(IF(OR(K16&gt;=M16,G16&gt;=M16),EUR_USD*LOOKUP(IF(K16="",G16,K16),{0,1,10,50,100,500},{0.0,0.08,0.007,0.0068,0.0064,0.00576}),"MOQ="&amp;M16),"")</f>
-        <v>0.006495916852264292</v>
+        <v>0.0059391239792130675</v>
       </c>
       <c r="M16" s="11">
         <v>1</v>
       </c>
       <c r="N16" s="13">
         <f>IFERROR(IF(K16="",G16,K16)*L16,"")</f>
-        <v>0.065</v>
+        <v>0.5939</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>129</v>
@@ -4779,14 +4779,14 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="12">
         <f>IFERROR(IF(OR(Q16&gt;=S16,G16&gt;=S16),LOOKUP(IF(Q16="",G16,Q16),{0,1,10,100,500,4000},{0.0,0.086,0.008,0.007,0.006,0.005}),"MOQ="&amp;S16),"")</f>
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="S16" s="11">
         <v>1</v>
       </c>
       <c r="T16" s="13">
         <f>IFERROR(IF(Q16="",G16,Q16)*R16,"")</f>
-        <v>0.08</v>
+        <v>0.7</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>161</v>
@@ -4810,15 +4810,15 @@
       </c>
       <c r="G17" s="11">
         <f>CEILING(BoardQty*3.0,1)</f>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H17" s="12">
         <f>IF(MIN(L17,R17)&lt;&gt;0,MIN(L17,R17),"")</f>
-        <v>0.761</v>
+        <v>0.568</v>
       </c>
       <c r="I17" s="13">
         <f>IF(AND(ISNUMBER(G17),ISNUMBER(H17)),G17*H17,"")</f>
-        <v>22.83</v>
+        <v>170.4</v>
       </c>
       <c r="J17" s="11">
         <v>5093</v>
@@ -4826,14 +4826,14 @@
       <c r="K17" s="11"/>
       <c r="L17" s="12">
         <f>IFERROR(IF(OR(K17&gt;=M17,G17&gt;=M17),EUR_USD*LOOKUP(IF(K17="",G17,K17),{0,1,10,100,500,1000,2000},{0.0,1.25,0.883,0.659,0.55954,0.52701,0.49942}),"MOQ="&amp;M17),"")</f>
-        <v>0.8194135115070529</v>
+        <v>0.6115441722345956</v>
       </c>
       <c r="M17" s="11">
         <v>1</v>
       </c>
       <c r="N17" s="13">
         <f>IFERROR(IF(K17="",G17,K17)*L17,"")</f>
-        <v>24.5824</v>
+        <v>183.4633</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>130</v>
@@ -4844,14 +4844,14 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="12">
         <f>IFERROR(IF(OR(Q17&gt;=S17,G17&gt;=S17),LOOKUP(IF(Q17="",G17,Q17),{0,1,10,100,500,1000,2000,4000,8000,24000},{0.0,1.08,0.761,0.568,0.482,0.453,0.43,0.409,0.384,0.374}),"MOQ="&amp;S17),"")</f>
-        <v>0.761</v>
+        <v>0.568</v>
       </c>
       <c r="S17" s="11">
         <v>1</v>
       </c>
       <c r="T17" s="13">
         <f>IFERROR(IF(Q17="",G17,Q17)*R17,"")</f>
-        <v>22.83</v>
+        <v>170.4</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>162</v>
@@ -4878,15 +4878,15 @@
       </c>
       <c r="G18" s="11">
         <f>CEILING(BoardQty*2.0,1)</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H18" s="12">
         <f>IF(MIN(L18,R18)&lt;&gt;0,MIN(L18,R18),"")</f>
-        <v>1.01</v>
+        <v>0.869</v>
       </c>
       <c r="I18" s="13">
         <f>IF(AND(ISNUMBER(G18),ISNUMBER(H18)),G18*H18,"")</f>
-        <v>20.2</v>
+        <v>173.8</v>
       </c>
       <c r="J18" s="11">
         <v>4541</v>
@@ -4894,14 +4894,14 @@
       <c r="K18" s="11"/>
       <c r="L18" s="12">
         <f>IFERROR(IF(OR(K18&gt;=M18,G18&gt;=M18),EUR_USD*LOOKUP(IF(K18="",G18,K18),{0,1,10,100,500,1000,2000},{0.0,2.27,1.632,1.2526,1.08532,1.03077,0.99297}),"MOQ="&amp;M18),"")</f>
-        <v>1.514476614699332</v>
+        <v>1.1623979213066074</v>
       </c>
       <c r="M18" s="11">
         <v>1</v>
       </c>
       <c r="N18" s="13">
         <f>IFERROR(IF(K18="",G18,K18)*L18,"")</f>
-        <v>30.2895</v>
+        <v>232.4796</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>131</v>
@@ -4912,14 +4912,14 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="12">
         <f>IFERROR(IF(OR(Q18&gt;=S18,G18&gt;=S18),LOOKUP(IF(Q18="",G18,Q18),{0,1,10,100,500,1000,2500,5000},{0.0,1.41,1.01,0.869,0.788,0.746,0.725,0.725}),"MOQ="&amp;S18),"")</f>
-        <v>1.01</v>
+        <v>0.869</v>
       </c>
       <c r="S18" s="11">
         <v>1</v>
       </c>
       <c r="T18" s="13">
         <f>IFERROR(IF(Q18="",G18,Q18)*R18,"")</f>
-        <v>20.2</v>
+        <v>173.8</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>163</v>
@@ -4943,15 +4943,15 @@
       </c>
       <c r="G19" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H19" s="12">
         <f>IF(MIN(L19,R19)&lt;&gt;0,MIN(L19,R19),"")</f>
-        <v>0.544</v>
+        <v>0.443</v>
       </c>
       <c r="I19" s="13">
         <f>IF(AND(ISNUMBER(G19),ISNUMBER(H19)),G19*H19,"")</f>
-        <v>5.44</v>
+        <v>44.3</v>
       </c>
       <c r="J19" s="11">
         <v>17061</v>
@@ -4959,14 +4959,14 @@
       <c r="K19" s="11"/>
       <c r="L19" s="12">
         <f>IFERROR(IF(OR(K19&gt;=M19,G19&gt;=M19),EUR_USD*LOOKUP(IF(K19="",G19,K19),{0,1,10,25,50,100,250},{0.0,0.78,0.659,0.6172,0.5878,0.5597,0.5246}),"MOQ="&amp;M19),"")</f>
-        <v>0.6115441722345956</v>
+        <v>0.5193949517446177</v>
       </c>
       <c r="M19" s="11">
         <v>1</v>
       </c>
       <c r="N19" s="13">
         <f>IFERROR(IF(K19="",G19,K19)*L19,"")</f>
-        <v>6.1154</v>
+        <v>51.9395</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>132</v>
@@ -4977,14 +4977,14 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="12">
         <f>IFERROR(IF(OR(Q19&gt;=S19,G19&gt;=S19),LOOKUP(IF(Q19="",G19,Q19),{0,1,10,25,100,250,500,800,4000},{0.0,0.671,0.544,0.471,0.443,0.409,0.368,0.334,0.32}),"MOQ="&amp;S19),"")</f>
-        <v>0.544</v>
+        <v>0.443</v>
       </c>
       <c r="S19" s="11">
         <v>1</v>
       </c>
       <c r="T19" s="13">
         <f>IFERROR(IF(Q19="",G19,Q19)*R19,"")</f>
-        <v>5.44</v>
+        <v>44.3</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>164</v>
@@ -5008,15 +5008,15 @@
       </c>
       <c r="G20" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H20" s="12">
         <f>IF(MIN(L20,R20)&lt;&gt;0,MIN(L20,R20),"")</f>
-        <v>0.538</v>
+        <v>0.483</v>
       </c>
       <c r="I20" s="13">
         <f>IF(AND(ISNUMBER(G20),ISNUMBER(H20)),G20*H20,"")</f>
-        <v>5.38</v>
+        <v>48.3</v>
       </c>
       <c r="J20" s="11">
         <v>110105</v>
@@ -5024,14 +5024,14 @@
       <c r="K20" s="11"/>
       <c r="L20" s="12">
         <f>IFERROR(IF(OR(K20&gt;=M20,G20&gt;=M20),EUR_USD*LOOKUP(IF(K20="",G20,K20),{0,1,10,25,50,100,250,500,1000,2500},{0.0,0.8,0.675,0.6328,0.6028,0.5739,0.53788,0.5122,0.48774,0.4572}),"MOQ="&amp;M20),"")</f>
-        <v>0.6263919821826281</v>
+        <v>0.5325723830734967</v>
       </c>
       <c r="M20" s="11">
         <v>1</v>
       </c>
       <c r="N20" s="13">
         <f>IFERROR(IF(K20="",G20,K20)*L20,"")</f>
-        <v>6.2639</v>
+        <v>53.2572</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>133</v>
@@ -5042,14 +5042,14 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="12">
         <f>IFERROR(IF(OR(Q20&gt;=S20,G20&gt;=S20),LOOKUP(IF(Q20="",G20,Q20),{0,1,10,25,100,250,500,1000,5000,10000},{0.0,0.611,0.538,0.501,0.483,0.453,0.431,0.385,0.368,0.351}),"MOQ="&amp;S20),"")</f>
-        <v>0.538</v>
+        <v>0.483</v>
       </c>
       <c r="S20" s="11">
         <v>1</v>
       </c>
       <c r="T20" s="13">
         <f>IFERROR(IF(Q20="",G20,Q20)*R20,"")</f>
-        <v>5.38</v>
+        <v>48.3</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>165</v>
@@ -5073,15 +5073,15 @@
       </c>
       <c r="G21" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H21" s="12">
         <f>IF(MIN(L21,R21)&lt;&gt;0,MIN(L21,R21),"")</f>
-        <v>0.161</v>
+        <v>0.132</v>
       </c>
       <c r="I21" s="13">
         <f>IF(AND(ISNUMBER(G21),ISNUMBER(H21)),G21*H21,"")</f>
-        <v>1.61</v>
+        <v>13.2</v>
       </c>
       <c r="J21" s="11">
         <v>7490</v>
@@ -5089,14 +5089,14 @@
       <c r="K21" s="11"/>
       <c r="L21" s="12">
         <f>IFERROR(IF(OR(K21&gt;=M21,G21&gt;=M21),EUR_USD*LOOKUP(IF(K21="",G21,K21),{0,1,10,25,50,100,250,500,1000},{0.0,0.23,0.187,0.1732,0.1632,0.1539,0.14232,0.13418,0.12651}),"MOQ="&amp;M21),"")</f>
-        <v>0.1735337787676318</v>
+        <v>0.14281737193763921</v>
       </c>
       <c r="M21" s="11">
         <v>1</v>
       </c>
       <c r="N21" s="13">
         <f>IFERROR(IF(K21="",G21,K21)*L21,"")</f>
-        <v>1.7353</v>
+        <v>14.2817</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>134</v>
@@ -5107,14 +5107,14 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="12">
         <f>IFERROR(IF(OR(Q21&gt;=S21,G21&gt;=S21),LOOKUP(IF(Q21="",G21,Q21),{0,1,10,25,100,250,1000,2500,4000,8000},{0.0,0.198,0.161,0.141,0.132,0.116,0.109,0.107,0.096,0.089}),"MOQ="&amp;S21),"")</f>
-        <v>0.161</v>
+        <v>0.132</v>
       </c>
       <c r="S21" s="11">
         <v>1</v>
       </c>
       <c r="T21" s="13">
         <f>IFERROR(IF(Q21="",G21,Q21)*R21,"")</f>
-        <v>1.61</v>
+        <v>13.2</v>
       </c>
       <c r="U21" s="11" t="s">
         <v>166</v>
@@ -5138,15 +5138,15 @@
       </c>
       <c r="G22" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H22" s="12">
         <f>IF(MIN(L22,R22)&lt;&gt;0,MIN(L22,R22),"")</f>
-        <v>0.111</v>
+        <v>0.092</v>
       </c>
       <c r="I22" s="13">
         <f>IF(AND(ISNUMBER(G22),ISNUMBER(H22)),G22*H22,"")</f>
-        <v>1.11</v>
+        <v>9.2</v>
       </c>
       <c r="J22" s="11">
         <v>5061</v>
@@ -5154,14 +5154,14 @@
       <c r="K22" s="11"/>
       <c r="L22" s="12">
         <f>IFERROR(IF(OR(K22&gt;=M22,G22&gt;=M22),EUR_USD*LOOKUP(IF(K22="",G22,K22),{0,1,10,25,50,100,250,500,1000},{0.0,0.16,0.129,0.1196,0.1128,0.1063,0.09832,0.0927,0.08739}),"MOQ="&amp;M22),"")</f>
-        <v>0.11971046770601339</v>
+        <v>0.09864513734224203</v>
       </c>
       <c r="M22" s="11">
         <v>1</v>
       </c>
       <c r="N22" s="13">
         <f>IFERROR(IF(K22="",G22,K22)*L22,"")</f>
-        <v>1.1971</v>
+        <v>9.8645</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>135</v>
@@ -5172,14 +5172,14 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="12">
         <f>IFERROR(IF(OR(Q22&gt;=S22,G22&gt;=S22),LOOKUP(IF(Q22="",G22,Q22),{0,1,10,25,100,250,1000,2500,4000,8000},{0.0,0.138,0.111,0.097,0.092,0.08,0.076,0.069,0.064,0.062}),"MOQ="&amp;S22),"")</f>
-        <v>0.111</v>
+        <v>0.092</v>
       </c>
       <c r="S22" s="11">
         <v>1</v>
       </c>
       <c r="T22" s="13">
         <f>IFERROR(IF(Q22="",G22,Q22)*R22,"")</f>
-        <v>1.11</v>
+        <v>9.2</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>167</v>
@@ -5206,15 +5206,15 @@
       </c>
       <c r="G23" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H23" s="12">
         <f>IF(MIN(L23,R23)&lt;&gt;0,MIN(L23,R23),"")</f>
-        <v>2.83</v>
+        <v>2.22</v>
       </c>
       <c r="I23" s="13">
         <f>IF(AND(ISNUMBER(G23),ISNUMBER(H23)),G23*H23,"")</f>
-        <v>28.3</v>
+        <v>222.0</v>
       </c>
       <c r="J23" s="11">
         <v>8770</v>
@@ -5222,14 +5222,14 @@
       <c r="K23" s="11"/>
       <c r="L23" s="12">
         <f>IFERROR(IF(OR(K23&gt;=M23,G23&gt;=M23),EUR_USD*LOOKUP(IF(K23="",G23,K23),{0,1,5,10,25,50,100,500,1000},{0.0,3.66,3.268,3.126,2.9544,2.8374,2.7303,2.51478,2.4667}),"MOQ="&amp;M23),"")</f>
-        <v>2.9008908685968824</v>
+        <v>2.5336859688196</v>
       </c>
       <c r="M23" s="11">
         <v>1</v>
       </c>
       <c r="N23" s="13">
         <f>IFERROR(IF(K23="",G23,K23)*L23,"")</f>
-        <v>29.0089</v>
+        <v>253.3686</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>136</v>
@@ -5240,14 +5240,14 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="12">
         <f>IFERROR(IF(OR(Q23&gt;=S23,G23&gt;=S23),LOOKUP(IF(Q23="",G23,Q23),{0,1,5,10,50,100,500,1000,2000,5000},{0.0,3.61,3.04,2.83,2.39,2.22,1.89,1.83,1.77,1.7}),"MOQ="&amp;S23),"")</f>
-        <v>2.83</v>
+        <v>2.22</v>
       </c>
       <c r="S23" s="11">
         <v>1</v>
       </c>
       <c r="T23" s="13">
         <f>IFERROR(IF(Q23="",G23,Q23)*R23,"")</f>
-        <v>28.3</v>
+        <v>222.0</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>168</v>
@@ -5271,15 +5271,15 @@
       </c>
       <c r="G24" s="11">
         <f>CEILING(BoardQty*2.0,1)</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H24" s="12">
         <f>IF(MIN(L24,R24)&lt;&gt;0,MIN(L24,R24),"")</f>
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="I24" s="13">
         <f>IF(AND(ISNUMBER(G24),ISNUMBER(H24)),G24*H24,"")</f>
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="J24" s="11">
         <v>39708</v>
@@ -5287,14 +5287,14 @@
       <c r="K24" s="11"/>
       <c r="L24" s="12">
         <f>IFERROR(IF(OR(K24&gt;=M24,G24&gt;=M24),EUR_USD*LOOKUP(IF(K24="",G24,K24),{0,1,10,25,50,100,250,500,1000},{0.0,0.1,0.032,0.0236,0.0194,0.0159,0.01244,0.01052,0.009}),"MOQ="&amp;M24),"")</f>
-        <v>0.029695619896065336</v>
+        <v>0.014755011135857464</v>
       </c>
       <c r="M24" s="11">
         <v>1</v>
       </c>
       <c r="N24" s="13">
         <f>IFERROR(IF(K24="",G24,K24)*L24,"")</f>
-        <v>0.5939</v>
+        <v>2.951</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>137</v>
@@ -5305,14 +5305,14 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="12">
         <f>IFERROR(IF(OR(Q24&gt;=S24,G24&gt;=S24),LOOKUP(IF(Q24="",G24,Q24),{0,1,10,100,1000,2000,5000,10000},{0.0,0.101,0.02,0.011,0.009,0.008,0.007,0.004}),"MOQ="&amp;S24),"")</f>
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="S24" s="11">
         <v>1</v>
       </c>
       <c r="T24" s="13">
         <f>IFERROR(IF(Q24="",G24,Q24)*R24,"")</f>
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>169</v>
@@ -5336,15 +5336,15 @@
       </c>
       <c r="G25" s="11">
         <f>CEILING(BoardQty*5.0,1)</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H25" s="12">
         <f>IF(MIN(L25,R25)&lt;&gt;0,MIN(L25,R25),"")</f>
-        <v>0.018002969561989608</v>
+        <v>0.009762435040831479</v>
       </c>
       <c r="I25" s="13">
         <f>IF(AND(ISNUMBER(G25),ISNUMBER(H25)),G25*H25,"")</f>
-        <v>0.9001</v>
+        <v>4.8812</v>
       </c>
       <c r="J25" s="11">
         <v>502198</v>
@@ -5352,14 +5352,14 @@
       <c r="K25" s="11"/>
       <c r="L25" s="12">
         <f>IFERROR(IF(OR(K25&gt;=M25,G25&gt;=M25),EUR_USD*LOOKUP(IF(K25="",G25,K25),{0,1,10,25,50,100,250,500,1000},{0.0,0.1,0.032,0.0236,0.0194,0.0159,0.01244,0.01052,0.009}),"MOQ="&amp;M25),"")</f>
-        <v>0.018002969561989608</v>
+        <v>0.009762435040831479</v>
       </c>
       <c r="M25" s="11">
         <v>1</v>
       </c>
       <c r="N25" s="13">
         <f>IFERROR(IF(K25="",G25,K25)*L25,"")</f>
-        <v>0.9001</v>
+        <v>4.8812</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>138</v>
@@ -5370,14 +5370,14 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="12">
         <f>IFERROR(IF(OR(Q25&gt;=S25,G25&gt;=S25),LOOKUP(IF(Q25="",G25,Q25),{0,1,10,100,1000,2000,5000,10000},{0.0,0.101,0.02,0.011,0.009,0.008,0.006,0.005}),"MOQ="&amp;S25),"")</f>
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="S25" s="11">
         <v>1</v>
       </c>
       <c r="T25" s="13">
         <f>IFERROR(IF(Q25="",G25,Q25)*R25,"")</f>
-        <v>1.0</v>
+        <v>5.5</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>170</v>
@@ -5401,15 +5401,15 @@
       </c>
       <c r="G26" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H26" s="12">
         <f>IF(MIN(L26,R26)&lt;&gt;0,MIN(L26,R26),"")</f>
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="I26" s="13">
         <f>IF(AND(ISNUMBER(G26),ISNUMBER(H26)),G26*H26,"")</f>
-        <v>0.17</v>
+        <v>1.1</v>
       </c>
       <c r="J26" s="11">
         <v>2116</v>
@@ -5417,14 +5417,14 @@
       <c r="K26" s="11"/>
       <c r="L26" s="12">
         <f>IFERROR(IF(OR(K26&gt;=M26,G26&gt;=M26),EUR_USD*LOOKUP(IF(K26="",G26,K26),{0,1,10,25,50,100,250,500,1000},{0.0,0.1,0.027,0.0224,0.0194,0.0171,0.01444,0.01276,0.01135}),"MOQ="&amp;M26),"")</f>
-        <v>0.025055679287305125</v>
+        <v>0.015868596881959914</v>
       </c>
       <c r="M26" s="11">
         <v>1</v>
       </c>
       <c r="N26" s="13">
         <f>IFERROR(IF(K26="",G26,K26)*L26,"")</f>
-        <v>0.2506</v>
+        <v>1.5869</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>139</v>
@@ -5435,14 +5435,14 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="12">
         <f>IFERROR(IF(OR(Q26&gt;=S26,G26&gt;=S26),LOOKUP(IF(Q26="",G26,Q26),{0,1,10,100,1000,5000},{0.0,0.086,0.017,0.011,0.01,0.009}),"MOQ="&amp;S26),"")</f>
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="S26" s="11">
         <v>1</v>
       </c>
       <c r="T26" s="13">
         <f>IFERROR(IF(Q26="",G26,Q26)*R26,"")</f>
-        <v>0.17</v>
+        <v>1.1</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>171</v>
@@ -5466,15 +5466,15 @@
       </c>
       <c r="G27" s="11">
         <f>CEILING(BoardQty*2.0,1)</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H27" s="12">
         <f>IF(MIN(L27,R27)&lt;&gt;0,MIN(L27,R27),"")</f>
-        <v>0.181</v>
+        <v>0.16</v>
       </c>
       <c r="I27" s="13">
         <f>IF(AND(ISNUMBER(G27),ISNUMBER(H27)),G27*H27,"")</f>
-        <v>3.62</v>
+        <v>32.0</v>
       </c>
       <c r="J27" s="11">
         <v>45265</v>
@@ -5482,14 +5482,14 @@
       <c r="K27" s="11"/>
       <c r="L27" s="12">
         <f>IFERROR(IF(OR(K27&gt;=M27,G27&gt;=M27),EUR_USD*LOOKUP(IF(K27="",G27,K27),{0,1,10,25,100,250,500,1000,2500},{0.0,0.28,0.245,0.2292,0.2056,0.19056,0.17982,0.16975,0.15762}),"MOQ="&amp;M27),"")</f>
-        <v>0.2273570898292502</v>
+        <v>0.1907943578322198</v>
       </c>
       <c r="M27" s="11">
         <v>1</v>
       </c>
       <c r="N27" s="13">
         <f>IFERROR(IF(K27="",G27,K27)*L27,"")</f>
-        <v>4.5471</v>
+        <v>38.1589</v>
       </c>
       <c r="O27" s="11" t="s">
         <v>140</v>
@@ -5500,14 +5500,14 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="12">
         <f>IFERROR(IF(OR(Q27&gt;=S27,G27&gt;=S27),LOOKUP(IF(Q27="",G27,Q27),{0,1,10,25,100,250,500,1000,2500,5000},{0.0,0.206,0.181,0.175,0.16,0.151,0.146,0.141,0.136,0.127}),"MOQ="&amp;S27),"")</f>
-        <v>0.181</v>
+        <v>0.16</v>
       </c>
       <c r="S27" s="11">
         <v>1</v>
       </c>
       <c r="T27" s="13">
         <f>IFERROR(IF(Q27="",G27,Q27)*R27,"")</f>
-        <v>3.62</v>
+        <v>32.0</v>
       </c>
       <c r="U27" s="11" t="s">
         <v>172</v>
@@ -5531,15 +5531,15 @@
       </c>
       <c r="G28" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H28" s="12">
         <f>IF(MIN(L28,R28)&lt;&gt;0,MIN(L28,R28),"")</f>
-        <v>7.157572383073497</v>
+        <v>6.21</v>
       </c>
       <c r="I28" s="13">
         <f>IF(AND(ISNUMBER(G28),ISNUMBER(H28)),G28*H28,"")</f>
-        <v>71.5757</v>
+        <v>621.0</v>
       </c>
       <c r="J28" s="11">
         <v>4873</v>
@@ -5547,14 +5547,14 @@
       <c r="K28" s="11"/>
       <c r="L28" s="12">
         <f>IFERROR(IF(OR(K28&gt;=M28,G28&gt;=M28),EUR_USD*LOOKUP(IF(K28="",G28,K28),{0,1,5,10,25,50,100,500,1000},{0.0,8.88,8.03,7.713,7.3344,7.0754,6.8379,6.35966,6.18143}),"MOQ="&amp;M28),"")</f>
-        <v>7.157572383073497</v>
+        <v>6.3454899777282865</v>
       </c>
       <c r="M28" s="11">
         <v>1</v>
       </c>
       <c r="N28" s="13">
         <f>IFERROR(IF(K28="",G28,K28)*L28,"")</f>
-        <v>71.5757</v>
+        <v>634.549</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>141</v>
@@ -5565,14 +5565,14 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="12">
         <f>IFERROR(IF(OR(Q28&gt;=S28,G28&gt;=S28),LOOKUP(IF(Q28="",G28,Q28),{0,1,5,10,25,50,100,500,1000,2500},{0.0,10.11,8.52,7.92,7.19,6.68,6.21,5.5,5.31,5.31}),"MOQ="&amp;S28),"")</f>
-        <v>7.92</v>
+        <v>6.21</v>
       </c>
       <c r="S28" s="11">
         <v>1</v>
       </c>
       <c r="T28" s="13">
         <f>IFERROR(IF(Q28="",G28,Q28)*R28,"")</f>
-        <v>79.2</v>
+        <v>621.0</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>173</v>
@@ -5596,15 +5596,15 @@
       </c>
       <c r="G29" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H29" s="12">
         <f>IF(MIN(L29,R29)&lt;&gt;0,MIN(L29,R29),"")</f>
-        <v>0.601</v>
+        <v>0.476</v>
       </c>
       <c r="I29" s="13">
         <f>IF(AND(ISNUMBER(G29),ISNUMBER(H29)),G29*H29,"")</f>
-        <v>6.01</v>
+        <v>47.6</v>
       </c>
       <c r="J29" s="11">
         <v>7676</v>
@@ -5612,14 +5612,14 @@
       <c r="K29" s="11"/>
       <c r="L29" s="12">
         <f>IFERROR(IF(OR(K29&gt;=M29,G29&gt;=M29),EUR_USD*LOOKUP(IF(K29="",G29,K29),{0,1,10,25,100,250,500},{0.0,0.97,0.696,0.628,0.553,0.5172,0.49572}),"MOQ="&amp;M29),"")</f>
-        <v>0.645879732739421</v>
+        <v>0.513177431328879</v>
       </c>
       <c r="M29" s="11">
         <v>1</v>
       </c>
       <c r="N29" s="13">
         <f>IFERROR(IF(K29="",G29,K29)*L29,"")</f>
-        <v>6.4588</v>
+        <v>51.3177</v>
       </c>
       <c r="O29" s="11" t="s">
         <v>142</v>
@@ -5630,14 +5630,14 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="12">
         <f>IFERROR(IF(OR(Q29&gt;=S29,G29&gt;=S29),LOOKUP(IF(Q29="",G29,Q29),{0,1,10,25,100,250,500,1000,3000,6000},{0.0,0.834,0.601,0.541,0.476,0.445,0.427,0.411,0.395,0.375}),"MOQ="&amp;S29),"")</f>
-        <v>0.601</v>
+        <v>0.476</v>
       </c>
       <c r="S29" s="11">
         <v>1</v>
       </c>
       <c r="T29" s="13">
         <f>IFERROR(IF(Q29="",G29,Q29)*R29,"")</f>
-        <v>6.01</v>
+        <v>47.6</v>
       </c>
       <c r="U29" s="11" t="s">
         <v>174</v>
@@ -5661,15 +5661,15 @@
       </c>
       <c r="G30" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H30" s="12">
         <f>IF(MIN(L30,R30)&lt;&gt;0,MIN(L30,R30),"")</f>
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="I30" s="13">
         <f>IF(AND(ISNUMBER(G30),ISNUMBER(H30)),G30*H30,"")</f>
-        <v>20.4</v>
+        <v>168.0</v>
       </c>
       <c r="J30" s="11">
         <v>10132</v>
@@ -5677,14 +5677,14 @@
       <c r="K30" s="11"/>
       <c r="L30" s="12">
         <f>IFERROR(IF(OR(K30&gt;=M30,G30&gt;=M30),EUR_USD*LOOKUP(IF(K30="",G30,K30),{0,1,10,25,100,250,500,1000},{0.0,3.16,2.37,2.1724,1.955,1.85132,1.7888,1.73733}),"MOQ="&amp;M30),"")</f>
-        <v>2.199331848552339</v>
+        <v>1.8142167780252416</v>
       </c>
       <c r="M30" s="11">
         <v>1</v>
       </c>
       <c r="N30" s="13">
         <f>IFERROR(IF(K30="",G30,K30)*L30,"")</f>
-        <v>21.9933</v>
+        <v>181.4217</v>
       </c>
       <c r="O30" s="11" t="s">
         <v>143</v>
@@ -5695,14 +5695,14 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="12">
         <f>IFERROR(IF(OR(Q30&gt;=S30,G30&gt;=S30),LOOKUP(IF(Q30="",G30,Q30),{0,1,10,25,100,250,500,1000,3000,6000},{0.0,2.73,2.04,1.87,1.68,1.59,1.54,1.49,1.44,1.42}),"MOQ="&amp;S30),"")</f>
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="S30" s="11">
         <v>1</v>
       </c>
       <c r="T30" s="13">
         <f>IFERROR(IF(Q30="",G30,Q30)*R30,"")</f>
-        <v>20.4</v>
+        <v>168.0</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>175</v>
@@ -5726,15 +5726,15 @@
       </c>
       <c r="G31" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H31" s="12">
         <f>IF(MIN(L31,R31)&lt;&gt;0,MIN(L31,R31),"")</f>
-        <v>0.7433184855233854</v>
+        <v>0.4797698589458056</v>
       </c>
       <c r="I31" s="13">
         <f>IF(AND(ISNUMBER(G31),ISNUMBER(H31)),G31*H31,"")</f>
-        <v>7.4332</v>
+        <v>47.977</v>
       </c>
       <c r="J31" s="11">
         <v>57377</v>
@@ -5742,14 +5742,14 @@
       <c r="K31" s="11"/>
       <c r="L31" s="12">
         <f>IFERROR(IF(OR(K31&gt;=M31,G31&gt;=M31),EUR_USD*LOOKUP(IF(K31="",G31,K31),{0,1,10,25,100,250,500,1000},{0.0,1.31,0.801,0.668,0.517,0.44284,0.3972,0.35895}),"MOQ="&amp;M31),"")</f>
-        <v>0.7433184855233854</v>
+        <v>0.4797698589458056</v>
       </c>
       <c r="M31" s="11">
         <v>1</v>
       </c>
       <c r="N31" s="13">
         <f>IFERROR(IF(K31="",G31,K31)*L31,"")</f>
-        <v>7.4332</v>
+        <v>47.977</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>144</v>
@@ -5780,15 +5780,15 @@
       </c>
       <c r="G32" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H32" s="12">
         <f>IF(MIN(L32,R32)&lt;&gt;0,MIN(L32,R32),"")</f>
-        <v>0.7433184855233854</v>
+        <v>0.4797698589458056</v>
       </c>
       <c r="I32" s="13">
         <f>IF(AND(ISNUMBER(G32),ISNUMBER(H32)),G32*H32,"")</f>
-        <v>7.4332</v>
+        <v>47.977</v>
       </c>
       <c r="J32" s="11">
         <v>5294</v>
@@ -5796,14 +5796,14 @@
       <c r="K32" s="11"/>
       <c r="L32" s="12">
         <f>IFERROR(IF(OR(K32&gt;=M32,G32&gt;=M32),EUR_USD*LOOKUP(IF(K32="",G32,K32),{0,1,10,25,100,250,500,1000},{0.0,1.31,0.801,0.668,0.517,0.44284,0.3972,0.35895}),"MOQ="&amp;M32),"")</f>
-        <v>0.7433184855233854</v>
+        <v>0.4797698589458056</v>
       </c>
       <c r="M32" s="11">
         <v>1</v>
       </c>
       <c r="N32" s="13">
         <f>IFERROR(IF(K32="",G32,K32)*L32,"")</f>
-        <v>7.4332</v>
+        <v>47.977</v>
       </c>
       <c r="O32" s="11" t="s">
         <v>145</v>
@@ -5837,15 +5837,15 @@
       </c>
       <c r="G33" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H33" s="12">
         <f>IF(MIN(L33,R33)&lt;&gt;0,MIN(L33,R33),"")</f>
-        <v>6.18</v>
+        <v>5.4</v>
       </c>
       <c r="I33" s="13">
         <f>IF(AND(ISNUMBER(G33),ISNUMBER(H33)),G33*H33,"")</f>
-        <v>61.8</v>
+        <v>540.0</v>
       </c>
       <c r="J33" s="11">
         <v>1782</v>
@@ -5853,14 +5853,14 @@
       <c r="K33" s="11"/>
       <c r="L33" s="12">
         <f>IFERROR(IF(OR(K33&gt;=M33,G33&gt;=M33),EUR_USD*LOOKUP(IF(K33="",G33,K33),{0,1,10,25,100,250},{0.0,8.28,7.184,6.802,6.2776,5.96368}),"MOQ="&amp;M33),"")</f>
-        <v>6.666666666666668</v>
+        <v>5.825538233110617</v>
       </c>
       <c r="M33" s="11">
         <v>1</v>
       </c>
       <c r="N33" s="13">
         <f>IFERROR(IF(K33="",G33,K33)*L33,"")</f>
-        <v>66.6667</v>
+        <v>582.5538</v>
       </c>
       <c r="O33" s="11" t="s">
         <v>146</v>
@@ -5871,14 +5871,14 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="12">
         <f>IFERROR(IF(OR(Q33&gt;=S33,G33&gt;=S33),LOOKUP(IF(Q33="",G33,Q33),{0,1,10,25,100,250,500,1000},{0.0,7.12,6.18,5.86,5.4,5.13,4.94,4.65}),"MOQ="&amp;S33),"")</f>
-        <v>6.18</v>
+        <v>5.4</v>
       </c>
       <c r="S33" s="11">
         <v>1</v>
       </c>
       <c r="T33" s="13">
         <f>IFERROR(IF(Q33="",G33,Q33)*R33,"")</f>
-        <v>61.8</v>
+        <v>540.0</v>
       </c>
       <c r="U33" s="11" t="s">
         <v>176</v>
@@ -5902,15 +5902,15 @@
       </c>
       <c r="G34" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H34" s="12">
         <f>IF(MIN(L34,R34)&lt;&gt;0,MIN(L34,R34),"")</f>
-        <v>0.206</v>
+        <v>0.158</v>
       </c>
       <c r="I34" s="13">
         <f>IF(AND(ISNUMBER(G34),ISNUMBER(H34)),G34*H34,"")</f>
-        <v>2.06</v>
+        <v>15.8</v>
       </c>
       <c r="J34" s="11">
         <v>237574</v>
@@ -5918,14 +5918,14 @@
       <c r="K34" s="11"/>
       <c r="L34" s="12">
         <f>IFERROR(IF(OR(K34&gt;=M34,G34&gt;=M34),EUR_USD*LOOKUP(IF(K34="",G34,K34),{0,1,10,25,100,250,500,1000},{0.0,0.35,0.24,0.2132,0.1837,0.16972,0.16126,0.15431}),"MOQ="&amp;M34),"")</f>
-        <v>0.22271714922049</v>
+        <v>0.17047141796585005</v>
       </c>
       <c r="M34" s="11">
         <v>1</v>
       </c>
       <c r="N34" s="13">
         <f>IFERROR(IF(K34="",G34,K34)*L34,"")</f>
-        <v>2.2272</v>
+        <v>17.0471</v>
       </c>
       <c r="O34" s="11" t="s">
         <v>147</v>
@@ -5936,14 +5936,14 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="12">
         <f>IFERROR(IF(OR(Q34&gt;=S34,G34&gt;=S34),LOOKUP(IF(Q34="",G34,Q34),{0,1,10,25,100,250,1000,3000},{0.0,0.301,0.206,0.184,0.158,0.138,0.133,0.112}),"MOQ="&amp;S34),"")</f>
-        <v>0.206</v>
+        <v>0.158</v>
       </c>
       <c r="S34" s="11">
         <v>1</v>
       </c>
       <c r="T34" s="13">
         <f>IFERROR(IF(Q34="",G34,Q34)*R34,"")</f>
-        <v>2.06</v>
+        <v>15.8</v>
       </c>
       <c r="U34" s="11" t="s">
         <v>177</v>
@@ -5967,15 +5967,15 @@
       </c>
       <c r="G35" s="11">
         <f>CEILING(BoardQty*1.0,1)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H35" s="12">
         <f>IF(MIN(L35,R35)&lt;&gt;0,MIN(L35,R35),"")</f>
-        <v>5.273756495916853</v>
+        <v>4.33</v>
       </c>
       <c r="I35" s="13">
         <f>IF(AND(ISNUMBER(G35),ISNUMBER(H35)),G35*H35,"")</f>
-        <v>52.7376</v>
+        <v>433.0</v>
       </c>
       <c r="J35" s="11">
         <v>12045</v>
@@ -5983,14 +5983,14 @@
       <c r="K35" s="11"/>
       <c r="L35" s="12">
         <f>IFERROR(IF(OR(K35&gt;=M35,G35&gt;=M35),EUR_USD*LOOKUP(IF(K35="",G35,K35),{0,1,10,25,100,250},{0.0,6.56,5.683,5.378,4.9592,4.7084}),"MOQ="&amp;M35),"")</f>
-        <v>5.273756495916853</v>
+        <v>4.602078693392725</v>
       </c>
       <c r="M35" s="11">
         <v>1</v>
       </c>
       <c r="N35" s="13">
         <f>IFERROR(IF(K35="",G35,K35)*L35,"")</f>
-        <v>52.7376</v>
+        <v>460.2079</v>
       </c>
       <c r="O35" s="11" t="s">
         <v>148</v>
@@ -6001,14 +6001,14 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="12">
         <f>IFERROR(IF(OR(Q35&gt;=S35,G35&gt;=S35),LOOKUP(IF(Q35="",G35,Q35),{0,1,10,25,100,250,500,1000},{0.0,5.77,5.29,4.82,4.33,4.04,3.84,3.7}),"MOQ="&amp;S35),"")</f>
-        <v>5.29</v>
+        <v>4.33</v>
       </c>
       <c r="S35" s="11">
         <v>1</v>
       </c>
       <c r="T35" s="13">
         <f>IFERROR(IF(Q35="",G35,Q35)*R35,"")</f>
-        <v>52.9</v>
+        <v>433.0</v>
       </c>
       <c r="U35" s="11" t="s">
         <v>178</v>
